--- a/Data_rev.xlsx
+++ b/Data_rev.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CAMH137222\OneDrive - WSP O365\Documents\Bayfield\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CAMH137222\OneDrive - WSP O365\Documents\testhere\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2727E4-7057-4FF1-AFEB-2B9DE8A95B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A46B589-DE1F-4245-9141-7013C4E73080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11124" yWindow="12852" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -189,9 +189,6 @@
     <t>AADT factor</t>
   </si>
   <si>
-    <t>Site Code</t>
-  </si>
-  <si>
     <t>March 21 2023  on Bayfield St South of Cundles Rd- highest volume location (8-peak hour volumes)</t>
   </si>
   <si>
@@ -232,6 +229,9 @@
   </si>
   <si>
     <t>March 21 2023  on Bayfield St South of  Grove Street - highest volume location (8-peak hour volumes)</t>
+  </si>
+  <si>
+    <t>Site Code 2</t>
   </si>
 </sst>
 </file>
@@ -1177,20 +1177,20 @@
       <selection activeCell="J56" sqref="J56:L56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" customWidth="1"/>
-    <col min="3" max="3" width="23.5546875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" customWidth="1"/>
-    <col min="11" max="11" width="15.5546875" customWidth="1"/>
-    <col min="12" max="12" width="12.21875" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" customWidth="1"/>
     <col min="13" max="13" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>39243.079144198986</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>6761</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>2.0240911462863105</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>7.8202208567868352E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>0.5915008808490525</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>47827.249695599232</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="11" t="s">
         <v>17</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C16" s="11" t="s">
         <v>18</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>19</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>23</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>30200</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I21" t="s">
         <v>39</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>19273</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I22" t="s">
         <v>38</v>
       </c>
@@ -1569,12 +1569,12 @@
         <v>13006</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="J25" s="16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="J26" t="s">
         <v>24</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="J27">
         <f>7657+1386+949</f>
         <v>9992</v>
@@ -1605,12 +1605,12 @@
         <v>40763.171595060005</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="J31" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="J32" t="s">
         <v>24</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J33">
         <v>9141</v>
       </c>
@@ -1641,12 +1641,12 @@
         <v>40147.84788658897</v>
       </c>
     </row>
-    <row r="35" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J35" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="10:13" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J36" t="s">
         <v>24</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J37">
         <v>10934</v>
       </c>
@@ -1677,12 +1677,12 @@
         <v>43947.066968168372</v>
       </c>
     </row>
-    <row r="40" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J40" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="10:13" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J41" t="s">
         <v>24</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J42">
         <f>6405+1714+753</f>
         <v>8872</v>
@@ -1713,12 +1713,12 @@
         <v>37136.000260914938</v>
       </c>
     </row>
-    <row r="45" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J45" s="16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="10:13" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J46" t="s">
         <v>24</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J47">
         <v>7903</v>
       </c>
@@ -1749,12 +1749,12 @@
         <v>33338.805270481818</v>
       </c>
     </row>
-    <row r="50" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J50" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="10:13" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J51" t="s">
         <v>24</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J52">
         <f>5984</f>
         <v>5984</v>
@@ -1786,12 +1786,12 @@
         <v>24376.129674726039</v>
       </c>
     </row>
-    <row r="54" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J54" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="10:13" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J55" t="s">
         <v>24</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J56">
         <f>4820+441+29</f>
         <v>5290</v>
@@ -1832,23 +1832,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407B395F-BA9A-4859-B080-DE5ADEF772AC}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="69.77734375" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="69.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s">
         <v>42</v>
@@ -1869,7 +1867,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>48</v>
       </c>
@@ -1883,7 +1881,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2303700015</v>
       </c>
@@ -1915,18 +1913,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>47</v>
       </c>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2303700015</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5">
         <f>Sheet1!J37</f>
@@ -1949,12 +1947,12 @@
         <v>43947.066968168372</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2303700016</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6">
         <f>Sheet1!J27</f>
@@ -1977,12 +1975,12 @@
         <v>40763.171595060005</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2303700016</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7">
         <f>Sheet1!J33</f>
@@ -2005,12 +2003,12 @@
         <v>40147.84788658897</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2303700023</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8">
         <f>Sheet1!J42</f>
@@ -2033,12 +2031,12 @@
         <v>37136.000260914938</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2303700023</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9">
         <v>7903</v>
@@ -2060,12 +2058,12 @@
         <v>33338.805270481818</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2303700020</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10">
         <f>Sheet1!J52</f>
@@ -2088,12 +2086,12 @@
         <v>24376.129674726039</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2303700020</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11">
         <f>4820+441+29</f>
@@ -2132,15 +2130,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B1A0D63259FBA848B34211FF238C275D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bb9d81aab52b024b73d5c6386321c0b5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="323ad87a-8af6-4c6c-a04d-46183120dd34" xmlns:ns3="0dbb9613-057a-4ae2-a1fa-9a89c406c5e8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bdb2e7cfe41a5371f80e16bdff3171ae" ns2:_="" ns3:_="">
     <xsd:import namespace="323ad87a-8af6-4c6c-a04d-46183120dd34"/>
@@ -2357,6 +2346,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19927E65-B844-4722-92CF-5961BAAD8465}">
   <ds:schemaRefs>
@@ -2369,14 +2367,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48AD7FF7-4573-4920-8EE8-32B9778A774D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBDBFE4F-A204-4C35-ACEE-A6B65CA9A1EE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2395,6 +2385,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48AD7FF7-4573-4920-8EE8-32B9778A774D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{59096ad9-8b60-446a-90b7-017dbb9421a3}" enabled="1" method="Standard" siteId="{3d234255-e20f-4205-88a5-9658a402999b}" contentBits="0" removed="0"/>

--- a/Data_rev.xlsx
+++ b/Data_rev.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CAMH137222\OneDrive - WSP O365\Documents\testhere\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A46B589-DE1F-4245-9141-7013C4E73080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EAEC2FB-0B08-41A6-A5BC-8CD989224AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="67">
   <si>
     <t>Bikes</t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>Site Code 2</t>
+  </si>
+  <si>
+    <t>Street name</t>
   </si>
 </sst>
 </file>
@@ -1832,7 +1835,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407B395F-BA9A-4859-B080-DE5ADEF772AC}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1847,6 +1852,9 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
       </c>
       <c r="C1" t="s">
         <v>42</v>
@@ -2130,6 +2138,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B1A0D63259FBA848B34211FF238C275D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bb9d81aab52b024b73d5c6386321c0b5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="323ad87a-8af6-4c6c-a04d-46183120dd34" xmlns:ns3="0dbb9613-057a-4ae2-a1fa-9a89c406c5e8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bdb2e7cfe41a5371f80e16bdff3171ae" ns2:_="" ns3:_="">
     <xsd:import namespace="323ad87a-8af6-4c6c-a04d-46183120dd34"/>
@@ -2346,15 +2363,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19927E65-B844-4722-92CF-5961BAAD8465}">
   <ds:schemaRefs>
@@ -2367,6 +2375,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48AD7FF7-4573-4920-8EE8-32B9778A774D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBDBFE4F-A204-4C35-ACEE-A6B65CA9A1EE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2385,14 +2401,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48AD7FF7-4573-4920-8EE8-32B9778A774D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{59096ad9-8b60-446a-90b7-017dbb9421a3}" enabled="1" method="Standard" siteId="{3d234255-e20f-4205-88a5-9658a402999b}" contentBits="0" removed="0"/>

--- a/Data_rev.xlsx
+++ b/Data_rev.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CAMH137222\OneDrive - WSP O365\Documents\testhere\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A46B589-DE1F-4245-9141-7013C4E73080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD83A4F-4375-4C60-91AE-478A38F9D67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1832,7 +1832,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407B395F-BA9A-4859-B080-DE5ADEF772AC}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2111,6 +2113,9 @@
       <c r="G11" s="18">
         <f t="shared" si="0"/>
         <v>21439.173421464602</v>
+      </c>
+      <c r="I11">
+        <v>15000</v>
       </c>
     </row>
   </sheetData>
@@ -2130,6 +2135,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B1A0D63259FBA848B34211FF238C275D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bb9d81aab52b024b73d5c6386321c0b5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="323ad87a-8af6-4c6c-a04d-46183120dd34" xmlns:ns3="0dbb9613-057a-4ae2-a1fa-9a89c406c5e8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bdb2e7cfe41a5371f80e16bdff3171ae" ns2:_="" ns3:_="">
     <xsd:import namespace="323ad87a-8af6-4c6c-a04d-46183120dd34"/>
@@ -2346,15 +2360,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19927E65-B844-4722-92CF-5961BAAD8465}">
   <ds:schemaRefs>
@@ -2367,6 +2372,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48AD7FF7-4573-4920-8EE8-32B9778A774D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBDBFE4F-A204-4C35-ACEE-A6B65CA9A1EE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2385,14 +2398,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48AD7FF7-4573-4920-8EE8-32B9778A774D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{59096ad9-8b60-446a-90b7-017dbb9421a3}" enabled="1" method="Standard" siteId="{3d234255-e20f-4205-88a5-9658a402999b}" contentBits="0" removed="0"/>

--- a/Data_rev.xlsx
+++ b/Data_rev.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CAMH137222\OneDrive - WSP O365\Documents\testhere\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EAEC2FB-0B08-41A6-A5BC-8CD989224AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881FB3B9-EB8B-4F7F-BA97-CD1EB9242827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2138,15 +2138,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B1A0D63259FBA848B34211FF238C275D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bb9d81aab52b024b73d5c6386321c0b5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="323ad87a-8af6-4c6c-a04d-46183120dd34" xmlns:ns3="0dbb9613-057a-4ae2-a1fa-9a89c406c5e8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bdb2e7cfe41a5371f80e16bdff3171ae" ns2:_="" ns3:_="">
     <xsd:import namespace="323ad87a-8af6-4c6c-a04d-46183120dd34"/>
@@ -2363,6 +2354,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19927E65-B844-4722-92CF-5961BAAD8465}">
   <ds:schemaRefs>
@@ -2375,14 +2375,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48AD7FF7-4573-4920-8EE8-32B9778A774D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBDBFE4F-A204-4C35-ACEE-A6B65CA9A1EE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2401,6 +2393,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48AD7FF7-4573-4920-8EE8-32B9778A774D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{59096ad9-8b60-446a-90b7-017dbb9421a3}" enabled="1" method="Standard" siteId="{3d234255-e20f-4205-88a5-9658a402999b}" contentBits="0" removed="0"/>

--- a/Data_rev.xlsx
+++ b/Data_rev.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CAMH137222\OneDrive - WSP O365\Documents\testhere\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881FB3B9-EB8B-4F7F-BA97-CD1EB9242827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4862471-A426-46EC-93E9-63924F73CCB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1833,10 +1833,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407B395F-BA9A-4859-B080-DE5ADEF772AC}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2119,6 +2119,11 @@
       <c r="G11" s="18">
         <f t="shared" si="0"/>
         <v>21439.173421464602</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>3700</v>
       </c>
     </row>
   </sheetData>
@@ -2138,6 +2143,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B1A0D63259FBA848B34211FF238C275D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bb9d81aab52b024b73d5c6386321c0b5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="323ad87a-8af6-4c6c-a04d-46183120dd34" xmlns:ns3="0dbb9613-057a-4ae2-a1fa-9a89c406c5e8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bdb2e7cfe41a5371f80e16bdff3171ae" ns2:_="" ns3:_="">
     <xsd:import namespace="323ad87a-8af6-4c6c-a04d-46183120dd34"/>
@@ -2354,15 +2368,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19927E65-B844-4722-92CF-5961BAAD8465}">
   <ds:schemaRefs>
@@ -2375,6 +2380,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48AD7FF7-4573-4920-8EE8-32B9778A774D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBDBFE4F-A204-4C35-ACEE-A6B65CA9A1EE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2393,14 +2406,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48AD7FF7-4573-4920-8EE8-32B9778A774D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{59096ad9-8b60-446a-90b7-017dbb9421a3}" enabled="1" method="Standard" siteId="{3d234255-e20f-4205-88a5-9658a402999b}" contentBits="0" removed="0"/>
